--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Epha7</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H2">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I2">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J2">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.014513</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N2">
-        <v>0.043539</v>
+        <v>0.726421</v>
       </c>
       <c r="O2">
-        <v>0.006538124153480057</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P2">
-        <v>0.009244530017173054</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q2">
-        <v>0.002499951328</v>
+        <v>0.05951042615611111</v>
       </c>
       <c r="R2">
-        <v>0.022499561952</v>
+        <v>0.5355938354049999</v>
       </c>
       <c r="S2">
-        <v>0.0006590419076821792</v>
+        <v>0.1068962866915339</v>
       </c>
       <c r="T2">
-        <v>0.001032538593761573</v>
+        <v>0.1275031574245828</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H3">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I3">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J3">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.2421403333333333</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N3">
-        <v>0.726421</v>
+        <v>0.171388</v>
       </c>
       <c r="O3">
-        <v>0.1090845147039467</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P3">
-        <v>0.154239204841748</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q3">
-        <v>0.04171012525866667</v>
+        <v>0.02106087155666667</v>
       </c>
       <c r="R3">
-        <v>0.375391127328</v>
+        <v>0.12636522934</v>
       </c>
       <c r="S3">
-        <v>0.0109957022811823</v>
+        <v>0.03783083249965642</v>
       </c>
       <c r="T3">
-        <v>0.01722726102618057</v>
+        <v>0.03008243311342099</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,60 +649,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.172256</v>
+        <v>1.036691</v>
       </c>
       <c r="H4">
-        <v>0.516768</v>
+        <v>3.110073</v>
       </c>
       <c r="I4">
-        <v>0.1007998459820299</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J4">
-        <v>0.1116918428350044</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.013551</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N4">
-        <v>0.04065299999999999</v>
+        <v>0.726421</v>
       </c>
       <c r="O4">
-        <v>0.006104741983312082</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P4">
-        <v>0.008631752653669953</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q4">
-        <v>0.002334241056</v>
+        <v>0.2510247043036666</v>
       </c>
       <c r="R4">
-        <v>0.021008169504</v>
+        <v>2.259222338733</v>
       </c>
       <c r="S4">
-        <v>0.0006153570516778895</v>
+        <v>0.4509060091001674</v>
       </c>
       <c r="T4">
-        <v>0.0009640963607843367</v>
+        <v>0.5378291579752537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -717,57 +714,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.172256</v>
+        <v>1.036691</v>
       </c>
       <c r="H5">
-        <v>0.516768</v>
+        <v>3.110073</v>
       </c>
       <c r="I5">
-        <v>0.1007998459820299</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J5">
-        <v>0.1116918428350044</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.9495455</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N5">
-        <v>3.899091</v>
+        <v>0.171388</v>
       </c>
       <c r="O5">
-        <v>0.878272619159261</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P5">
-        <v>0.827884512487409</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q5">
-        <v>0.335820909648</v>
+        <v>0.08883819855400001</v>
       </c>
       <c r="R5">
-        <v>2.014925457888</v>
+        <v>0.5330291913240001</v>
       </c>
       <c r="S5">
-        <v>0.08852974474148749</v>
+        <v>0.1595766348047334</v>
       </c>
       <c r="T5">
-        <v>0.09246794685427794</v>
+        <v>0.126892619744009</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.4156905</v>
+      </c>
+      <c r="H6">
+        <v>0.831381</v>
+      </c>
+      <c r="I6">
+        <v>0.2447902369039089</v>
+      </c>
+      <c r="J6">
+        <v>0.1776926317427335</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.036691</v>
-      </c>
-      <c r="H6">
-        <v>3.110073</v>
-      </c>
-      <c r="I6">
-        <v>0.6066453019398833</v>
-      </c>
-      <c r="J6">
-        <v>0.6721967782861762</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.014513</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N6">
-        <v>0.043539</v>
+        <v>0.726421</v>
       </c>
       <c r="O6">
-        <v>0.006538124153480057</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P6">
-        <v>0.009244530017173054</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q6">
-        <v>0.015045496483</v>
+        <v>0.1006554362335</v>
       </c>
       <c r="R6">
-        <v>0.135409468347</v>
+        <v>0.603932617401</v>
       </c>
       <c r="S6">
-        <v>0.003966322301208353</v>
+        <v>0.1808034837534551</v>
       </c>
       <c r="T6">
-        <v>0.006214143294313575</v>
+        <v>0.1437718481806133</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,427 +835,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.036691</v>
+        <v>0.4156905</v>
       </c>
       <c r="H7">
-        <v>3.110073</v>
+        <v>0.831381</v>
       </c>
       <c r="I7">
-        <v>0.6066453019398833</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J7">
-        <v>0.6721967782861762</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.2421403333333333</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N7">
-        <v>0.726421</v>
+        <v>0.171388</v>
       </c>
       <c r="O7">
-        <v>0.1090845147039467</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P7">
-        <v>0.154239204841748</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q7">
-        <v>0.2510247043036666</v>
+        <v>0.035622181707</v>
       </c>
       <c r="R7">
-        <v>2.259222338733</v>
+        <v>0.142488726828</v>
       </c>
       <c r="S7">
-        <v>0.06617560835954141</v>
+        <v>0.06398675315045374</v>
       </c>
       <c r="T7">
-        <v>0.1036790965800446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.036691</v>
-      </c>
-      <c r="H8">
-        <v>3.110073</v>
-      </c>
-      <c r="I8">
-        <v>0.6066453019398833</v>
-      </c>
-      <c r="J8">
-        <v>0.6721967782861762</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.013551</v>
-      </c>
-      <c r="N8">
-        <v>0.04065299999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.006104741983312082</v>
-      </c>
-      <c r="P8">
-        <v>0.008631752653669953</v>
-      </c>
-      <c r="Q8">
-        <v>0.014048199741</v>
-      </c>
-      <c r="R8">
-        <v>0.126433797669</v>
-      </c>
-      <c r="S8">
-        <v>0.00370341304373144</v>
-      </c>
-      <c r="T8">
-        <v>0.005802236324760094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.036691</v>
-      </c>
-      <c r="H9">
-        <v>3.110073</v>
-      </c>
-      <c r="I9">
-        <v>0.6066453019398833</v>
-      </c>
-      <c r="J9">
-        <v>0.6721967782861762</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.9495455</v>
-      </c>
-      <c r="N9">
-        <v>3.899091</v>
-      </c>
-      <c r="O9">
-        <v>0.878272619159261</v>
-      </c>
-      <c r="P9">
-        <v>0.827884512487409</v>
-      </c>
-      <c r="Q9">
-        <v>2.0210762739405</v>
-      </c>
-      <c r="R9">
-        <v>12.126457643643</v>
-      </c>
-      <c r="S9">
-        <v>0.532799958235402</v>
-      </c>
-      <c r="T9">
-        <v>0.5565013020870579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.4999445</v>
-      </c>
-      <c r="H10">
-        <v>0.999889</v>
-      </c>
-      <c r="I10">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J10">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.014513</v>
-      </c>
-      <c r="N10">
-        <v>0.043539</v>
-      </c>
-      <c r="O10">
-        <v>0.006538124153480057</v>
-      </c>
-      <c r="P10">
-        <v>0.009244530017173054</v>
-      </c>
-      <c r="Q10">
-        <v>0.0072556945285</v>
-      </c>
-      <c r="R10">
-        <v>0.043534167171</v>
-      </c>
-      <c r="S10">
-        <v>0.001912759944589525</v>
-      </c>
-      <c r="T10">
-        <v>0.001997848129097904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.4999445</v>
-      </c>
-      <c r="H11">
-        <v>0.999889</v>
-      </c>
-      <c r="I11">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J11">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.2421403333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.726421</v>
-      </c>
-      <c r="O11">
-        <v>0.1090845147039467</v>
-      </c>
-      <c r="P11">
-        <v>0.154239204841748</v>
-      </c>
-      <c r="Q11">
-        <v>0.1210567278781667</v>
-      </c>
-      <c r="R11">
-        <v>0.726340367269</v>
-      </c>
-      <c r="S11">
-        <v>0.03191320406322303</v>
-      </c>
-      <c r="T11">
-        <v>0.03333284723552283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.4999445</v>
-      </c>
-      <c r="H12">
-        <v>0.999889</v>
-      </c>
-      <c r="I12">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J12">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.013551</v>
-      </c>
-      <c r="N12">
-        <v>0.04065299999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.006104741983312082</v>
-      </c>
-      <c r="P12">
-        <v>0.008631752653669953</v>
-      </c>
-      <c r="Q12">
-        <v>0.0067747479195</v>
-      </c>
-      <c r="R12">
-        <v>0.040648487517</v>
-      </c>
-      <c r="S12">
-        <v>0.001785971887902753</v>
-      </c>
-      <c r="T12">
-        <v>0.001865419968125522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.4999445</v>
-      </c>
-      <c r="H13">
-        <v>0.999889</v>
-      </c>
-      <c r="I13">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J13">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.9495455</v>
-      </c>
-      <c r="N13">
-        <v>3.899091</v>
-      </c>
-      <c r="O13">
-        <v>0.878272619159261</v>
-      </c>
-      <c r="P13">
-        <v>0.827884512487409</v>
-      </c>
-      <c r="Q13">
-        <v>0.9746645502247501</v>
-      </c>
-      <c r="R13">
-        <v>3.898658200899</v>
-      </c>
-      <c r="S13">
-        <v>0.2569429161823716</v>
-      </c>
-      <c r="T13">
-        <v>0.1789152635460731</v>
+        <v>0.03392078356212024</v>
       </c>
     </row>
   </sheetData>
